--- a/ODKWaypoints.xlsx
+++ b/ODKWaypoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -31,16 +31,25 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint</t>
+    <t xml:space="preserve">label::French (fr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label::English (en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::French (fr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::English (en)</t>
   </si>
   <si>
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">constraint_message</t>
+    <t xml:space="preserve">constraint_message::English (en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::French (fr)</t>
   </si>
   <si>
     <t xml:space="preserve">calculation</t>
@@ -91,10 +100,14 @@
     <t xml:space="preserve">ODK Waypoint</t>
   </si>
   <si>
-    <t xml:space="preserve">**ODK Waypoint ** est un formulaire de saisie simple permettant de remplacer les applications de création de Points d’Intérêt (et lignes et polygones) comme OruxMaps ou MapINR.
+    <t xml:space="preserve">**ODK Waypoint ** est un formulaire de saisie simple permettant la création de Points d’Intérêt (et lignes et polygones).
 Vous pouvez associer une image annotée et un texte à votre géométrie.
-Il ne permet pas la naviguation.
-Vous pourrez visualiser ces géometries automtiquement dans QGIS pour en faire ensuite ce que vous voudrez (couche ODKWaypoints du modèle de projet)</t>
+Il ne permet pas la naviguation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**ODK Waypoint ** is a simple input form for creating Points of Interest (and lines and polygons).
+You can associate an annotated image and text with your geometry.
+It does not allow navigation.</t>
   </si>
   <si>
     <t xml:space="preserve">devlp</t>
@@ -103,6 +116,9 @@
     <t xml:space="preserve">Développé et maintenu par</t>
   </si>
   <si>
+    <t xml:space="preserve">Developped et maintened by</t>
+  </si>
+  <si>
     <t xml:space="preserve">**Mathieu Bosssaert** (CEN Occitanie)</t>
   </si>
   <si>
@@ -115,12 +131,6 @@
     <t xml:space="preserve">date_heure</t>
   </si>
   <si>
-    <t xml:space="preserve">start-geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">point_depart</t>
-  </si>
-  <si>
     <t xml:space="preserve">utilisateur</t>
   </si>
   <si>
@@ -142,10 +152,16 @@
     <t xml:space="preserve">Utilisateur</t>
   </si>
   <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
     <t xml:space="preserve">contains(.,' ')</t>
   </si>
   <si>
-    <t xml:space="preserve">nom prénom séparer d'un espace</t>
+    <t xml:space="preserve">First name and last name with a space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom prénom séparés d'un espace</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -160,9 +176,15 @@
     <t xml:space="preserve">Adresse email</t>
   </si>
   <si>
+    <t xml:space="preserve">User’s mail address</t>
+  </si>
+  <si>
     <t xml:space="preserve">contains(.,'@')</t>
   </si>
   <si>
+    <t xml:space="preserve">Please intput a valid email address</t>
+  </si>
+  <si>
     <t xml:space="preserve">saisir une adresse mail</t>
   </si>
   <si>
@@ -193,6 +215,9 @@
     <t xml:space="preserve">un emplacement</t>
   </si>
   <si>
+    <t xml:space="preserve">a place</t>
+  </si>
+  <si>
     <t xml:space="preserve">localites</t>
   </si>
   <si>
@@ -220,6 +245,9 @@
     <t xml:space="preserve">méthode de géoréférencement ?</t>
   </si>
   <si>
+    <t xml:space="preserve">Geolocation method</t>
+  </si>
+  <si>
     <t xml:space="preserve">quick</t>
   </si>
   <si>
@@ -232,6 +260,9 @@
     <t xml:space="preserve">point automatique</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatic point</t>
+  </si>
+  <si>
     <t xml:space="preserve">${methode_geo} = 'point_auto_5’</t>
   </si>
   <si>
@@ -253,18 +284,27 @@
     <t xml:space="preserve">point sur carte</t>
   </si>
   <si>
+    <t xml:space="preserve">Point on map</t>
+  </si>
+  <si>
     <t xml:space="preserve">quick placement-map</t>
   </si>
   <si>
     <t xml:space="preserve">${methode_geo} = 'point'</t>
   </si>
   <si>
+    <t xml:space="preserve">allow-mock-accuracy=true</t>
+  </si>
+  <si>
     <t xml:space="preserve">geotrace</t>
   </si>
   <si>
     <t xml:space="preserve">ligne</t>
   </si>
   <si>
+    <t xml:space="preserve">Line</t>
+  </si>
+  <si>
     <t xml:space="preserve">${methode_geo} = 'ligne'</t>
   </si>
   <si>
@@ -274,6 +314,9 @@
     <t xml:space="preserve">polygone</t>
   </si>
   <si>
+    <t xml:space="preserve">Polygon</t>
+  </si>
+  <si>
     <t xml:space="preserve">${methode_geo} = 'polygone’</t>
   </si>
   <si>
@@ -283,6 +326,9 @@
     <t xml:space="preserve">Commenter cette localité</t>
   </si>
   <si>
+    <t xml:space="preserve">Add a comment about this place</t>
+  </si>
+  <si>
     <t xml:space="preserve">image</t>
   </si>
   <si>
@@ -292,6 +338,9 @@
     <t xml:space="preserve">Prendre une photo</t>
   </si>
   <si>
+    <t xml:space="preserve">Take a picture</t>
+  </si>
+  <si>
     <t xml:space="preserve">annotate</t>
   </si>
   <si>
@@ -310,15 +359,33 @@
     <t xml:space="preserve">point automatique (&lt;5m)</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatic point (5m threshold)</t>
+  </si>
+  <si>
     <t xml:space="preserve">point automatique (&lt;10m)</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatic point (10m threshold)</t>
+  </si>
+  <si>
     <t xml:space="preserve">point automatique (&lt;15m)</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatic point (15m threshold)</t>
+  </si>
+  <si>
     <t xml:space="preserve">point sur une carte</t>
   </si>
   <si>
+    <t xml:space="preserve">point on a map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polygon</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
@@ -331,6 +398,9 @@
     <t xml:space="preserve">instance_name</t>
   </si>
   <si>
+    <t xml:space="preserve">default_language</t>
+  </si>
+  <si>
     <t xml:space="preserve">ODKwaypoint</t>
   </si>
   <si>
@@ -338,6 +408,9 @@
   </si>
   <si>
     <t xml:space="preserve">concat(${mail_observateur},’_’,${date_heure})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English (en)</t>
   </si>
   <si>
     <t xml:space="preserve">Version</t>
@@ -482,16 +555,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -525,48 +598,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="45.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="29.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="9.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="21.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="29.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -605,465 +680,557 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="160.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="L9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="0"/>
+      <c r="N13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="J15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="0"/>
-      <c r="K12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="0"/>
-      <c r="K13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="0"/>
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="0"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="G21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="J21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="G22" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="J22" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="H23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="K23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="H24" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="K24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="H25" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="K25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="H26" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="K26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q26" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="3" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="H27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="K27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="H28" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="K28" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="K29" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1073,14 +1240,21 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C34" s="3"/>
-    </row>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1099,15 +1273,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="555" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.63"/>
@@ -1115,84 +1289,105 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.93"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1212,47 +1407,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.32"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">MAX(changes!A2:A44)</f>
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>126</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1274,11 +1476,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
@@ -1290,19 +1492,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,7 +1515,7 @@
         <v>44932</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1526,7 @@
         <v>44932</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1537,7 @@
         <v>44932</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1548,7 @@
         <v>44932</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
